--- a/resources/experiment 1/predictions/single/RandomForestRegressor/Cost.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/Cost.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>818145.266856958</v>
+        <v>815948.8466242919</v>
       </c>
       <c r="B2" t="n">
-        <v>556337.3350712869</v>
+        <v>553903.4897101057</v>
       </c>
       <c r="C2" t="n">
-        <v>1155726.320385638</v>
+        <v>1160710.181512963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>114342.3444755468</v>
+        <v>114717.946384911</v>
       </c>
       <c r="B3" t="n">
-        <v>84906.08140487557</v>
+        <v>85065.87905076986</v>
       </c>
       <c r="C3" t="n">
-        <v>148613.3165143234</v>
+        <v>151024.4192285407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>149660.8210503708</v>
+        <v>148776.1234743129</v>
       </c>
       <c r="B4" t="n">
-        <v>106357.8465191135</v>
+        <v>106246.2524547077</v>
       </c>
       <c r="C4" t="n">
-        <v>198675.8184131189</v>
+        <v>197263.4535220726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>155459.8897625671</v>
+        <v>154510.1013356931</v>
       </c>
       <c r="B5" t="n">
-        <v>118204.3708724677</v>
+        <v>118907.7896721767</v>
       </c>
       <c r="C5" t="n">
-        <v>206736.7255516272</v>
+        <v>205771.6466599592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>386111.5664964757</v>
+        <v>390872.4106442083</v>
       </c>
       <c r="B6" t="n">
-        <v>256657.0310389461</v>
+        <v>258980.362916429</v>
       </c>
       <c r="C6" t="n">
-        <v>568639.5486709311</v>
+        <v>574741.2911992705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>609522.2522551323</v>
+        <v>606880.8419751296</v>
       </c>
       <c r="B7" t="n">
-        <v>413748.4399150242</v>
+        <v>414314.4086768007</v>
       </c>
       <c r="C7" t="n">
-        <v>865010.2286143196</v>
+        <v>860624.4602578351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>922145.37662009</v>
+        <v>924344.6022658588</v>
       </c>
       <c r="B8" t="n">
-        <v>617088.8430968405</v>
+        <v>604470.7793365346</v>
       </c>
       <c r="C8" t="n">
-        <v>1255056.8987564</v>
+        <v>1263011.613799761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>326136.2295861955</v>
+        <v>324275.2043504216</v>
       </c>
       <c r="B9" t="n">
-        <v>224500.6240230439</v>
+        <v>223957.0345758374</v>
       </c>
       <c r="C9" t="n">
-        <v>459878.3764105582</v>
+        <v>455600.9132062558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1056028.902784545</v>
+        <v>1057126.410802208</v>
       </c>
       <c r="B10" t="n">
-        <v>735474.4468776098</v>
+        <v>738840.6393578437</v>
       </c>
       <c r="C10" t="n">
-        <v>1432666.304069409</v>
+        <v>1420952.01392503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1030348.949918702</v>
+        <v>1035171.264536929</v>
       </c>
       <c r="B11" t="n">
-        <v>700014.7125894513</v>
+        <v>699267.8577558476</v>
       </c>
       <c r="C11" t="n">
-        <v>1444288.709719405</v>
+        <v>1446925.91437444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>774974.4476385011</v>
+        <v>766586.6085540843</v>
       </c>
       <c r="B12" t="n">
-        <v>505267.0967603355</v>
+        <v>509706.8333459041</v>
       </c>
       <c r="C12" t="n">
-        <v>1086142.612468249</v>
+        <v>1090246.472679287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1373760.895228702</v>
+        <v>1371481.577681755</v>
       </c>
       <c r="B13" t="n">
-        <v>945342.6826736159</v>
+        <v>946325.6982386318</v>
       </c>
       <c r="C13" t="n">
-        <v>1847524.500049418</v>
+        <v>1837058.896405292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1173101.045660274</v>
+        <v>1165948.572484381</v>
       </c>
       <c r="B14" t="n">
-        <v>804832.8226808197</v>
+        <v>806300.827184155</v>
       </c>
       <c r="C14" t="n">
-        <v>1597056.201709561</v>
+        <v>1585026.115445837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>205542.1084337223</v>
+        <v>205014.3129916234</v>
       </c>
       <c r="B15" t="n">
-        <v>149512.4902620782</v>
+        <v>148140.8884201075</v>
       </c>
       <c r="C15" t="n">
-        <v>288439.024657239</v>
+        <v>285053.3513605037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>387298.6498260149</v>
+        <v>389079.4361068338</v>
       </c>
       <c r="B16" t="n">
-        <v>263578.4862485651</v>
+        <v>259554.9399012513</v>
       </c>
       <c r="C16" t="n">
-        <v>565757.939376377</v>
+        <v>563770.5013650062</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>758795.843081719</v>
+        <v>762265.6030484788</v>
       </c>
       <c r="B17" t="n">
-        <v>496697.8126759008</v>
+        <v>498671.5026760732</v>
       </c>
       <c r="C17" t="n">
-        <v>1065679.08367075</v>
+        <v>1072088.966044433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>149490.1650968064</v>
+        <v>148796.2469231778</v>
       </c>
       <c r="B18" t="n">
-        <v>106341.4018415809</v>
+        <v>106268.9699458452</v>
       </c>
       <c r="C18" t="n">
-        <v>198709.4690746905</v>
+        <v>197380.0781384635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1265992.712776931</v>
+        <v>1266437.489234939</v>
       </c>
       <c r="B19" t="n">
-        <v>839872.1550996497</v>
+        <v>844191.8897508249</v>
       </c>
       <c r="C19" t="n">
-        <v>1774827.530311243</v>
+        <v>1765092.177825624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>509036.4767318272</v>
+        <v>509625.0798522626</v>
       </c>
       <c r="B20" t="n">
-        <v>335526.4161559627</v>
+        <v>334845.133003838</v>
       </c>
       <c r="C20" t="n">
-        <v>728940.5270737953</v>
+        <v>729401.0449461483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>282096.5047672849</v>
+        <v>281437.8145121204</v>
       </c>
       <c r="B21" t="n">
-        <v>196340.8640397802</v>
+        <v>197298.9369640642</v>
       </c>
       <c r="C21" t="n">
-        <v>401066.7994693005</v>
+        <v>387534.2392097648</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1197455.662614743</v>
+        <v>1198045.514401541</v>
       </c>
       <c r="B22" t="n">
-        <v>787350.8936360464</v>
+        <v>790119.1201548043</v>
       </c>
       <c r="C22" t="n">
-        <v>1647859.827500878</v>
+        <v>1664018.011755192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>231344.0550292857</v>
+        <v>231750.535855732</v>
       </c>
       <c r="B23" t="n">
-        <v>159234.8520178517</v>
+        <v>158291.2947326502</v>
       </c>
       <c r="C23" t="n">
-        <v>329408.9505349465</v>
+        <v>329075.5248237757</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>388054.2418417384</v>
+        <v>392332.0440505766</v>
       </c>
       <c r="B24" t="n">
-        <v>265425.47275215</v>
+        <v>262658.4911053977</v>
       </c>
       <c r="C24" t="n">
-        <v>567939.4804693782</v>
+        <v>567928.4198550846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>268502.9647796981</v>
+        <v>266878.9867718245</v>
       </c>
       <c r="B25" t="n">
-        <v>184823.4752234168</v>
+        <v>182753.93987735</v>
       </c>
       <c r="C25" t="n">
-        <v>381533.998111969</v>
+        <v>378829.0201037372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>283583.6125516236</v>
+        <v>284895.2583476098</v>
       </c>
       <c r="B26" t="n">
-        <v>195746.6596178233</v>
+        <v>194827.8167130721</v>
       </c>
       <c r="C26" t="n">
-        <v>409753.3384404644</v>
+        <v>409251.7423977084</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1610047.881745972</v>
+        <v>1615251.989634879</v>
       </c>
       <c r="B27" t="n">
-        <v>1067013.284868859</v>
+        <v>1065829.290860575</v>
       </c>
       <c r="C27" t="n">
-        <v>2250446.565960423</v>
+        <v>2240339.506126142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>707808.7040398634</v>
+        <v>708529.7719326807</v>
       </c>
       <c r="B28" t="n">
-        <v>491002.5859270463</v>
+        <v>488376.6553981338</v>
       </c>
       <c r="C28" t="n">
-        <v>966062.3733315859</v>
+        <v>964515.48580973</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>258926.7606569939</v>
+        <v>261347.5460940035</v>
       </c>
       <c r="B29" t="n">
-        <v>181437.8012104065</v>
+        <v>181373.8186039565</v>
       </c>
       <c r="C29" t="n">
-        <v>362417.921253991</v>
+        <v>364061.9060557179</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>661245.3383873332</v>
+        <v>661126.5335249294</v>
       </c>
       <c r="B30" t="n">
-        <v>443460.4946805637</v>
+        <v>445259.8214875035</v>
       </c>
       <c r="C30" t="n">
-        <v>929000.5313309223</v>
+        <v>925661.2496613846</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1053640.898766931</v>
+        <v>1057787.297124199</v>
       </c>
       <c r="B31" t="n">
-        <v>731677.0603386477</v>
+        <v>729597.4347732206</v>
       </c>
       <c r="C31" t="n">
-        <v>1434902.920602126</v>
+        <v>1449998.530193612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1001627.252127553</v>
+        <v>997926.599332686</v>
       </c>
       <c r="B32" t="n">
-        <v>708905.5759793436</v>
+        <v>690952.1429656249</v>
       </c>
       <c r="C32" t="n">
-        <v>1383591.559611762</v>
+        <v>1390921.433959004</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1173371.566334983</v>
+        <v>1163459.55117863</v>
       </c>
       <c r="B33" t="n">
-        <v>813669.297533104</v>
+        <v>825084.0072865252</v>
       </c>
       <c r="C33" t="n">
-        <v>1596361.393179851</v>
+        <v>1575792.355092472</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1134014.162733827</v>
+        <v>1134211.013164033</v>
       </c>
       <c r="B34" t="n">
-        <v>735730.830120194</v>
+        <v>735090.4561967179</v>
       </c>
       <c r="C34" t="n">
-        <v>1621446.169278413</v>
+        <v>1616140.093486517</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>435839.7917889263</v>
+        <v>439992.1796270041</v>
       </c>
       <c r="B35" t="n">
-        <v>298450.7632524664</v>
+        <v>298680.5642920152</v>
       </c>
       <c r="C35" t="n">
-        <v>607654.3073345388</v>
+        <v>611515.8578083343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>610580.5667042239</v>
+        <v>605183.0585923763</v>
       </c>
       <c r="B36" t="n">
-        <v>414980.3724972418</v>
+        <v>412842.6466459449</v>
       </c>
       <c r="C36" t="n">
-        <v>840479.9491298692</v>
+        <v>833966.4240149057</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>328256.4156522371</v>
+        <v>329303.7800887074</v>
       </c>
       <c r="B37" t="n">
-        <v>230041.1480617157</v>
+        <v>228208.0988412359</v>
       </c>
       <c r="C37" t="n">
-        <v>460479.7700495807</v>
+        <v>460976.724837868</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1405007.022676426</v>
+        <v>1398996.562906179</v>
       </c>
       <c r="B38" t="n">
-        <v>953329.966147677</v>
+        <v>945802.065668466</v>
       </c>
       <c r="C38" t="n">
-        <v>1988555.25890983</v>
+        <v>1963557.208743701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>841981.4623573537</v>
+        <v>851745.9328587741</v>
       </c>
       <c r="B39" t="n">
-        <v>546833.7074539348</v>
+        <v>548332.9903191734</v>
       </c>
       <c r="C39" t="n">
-        <v>1189804.454991117</v>
+        <v>1208440.475573087</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>205917.2021516166</v>
+        <v>207416.0278052845</v>
       </c>
       <c r="B40" t="n">
-        <v>154643.0787773921</v>
+        <v>154550.0494706825</v>
       </c>
       <c r="C40" t="n">
-        <v>286640.4790558803</v>
+        <v>291067.7005485471</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>508834.1299458315</v>
+        <v>504652.5308022826</v>
       </c>
       <c r="B41" t="n">
-        <v>346643.8307455943</v>
+        <v>347112.3213318263</v>
       </c>
       <c r="C41" t="n">
-        <v>711356.3466432929</v>
+        <v>707383.3969430209</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1144299.938947607</v>
+        <v>1143617.757840133</v>
       </c>
       <c r="B42" t="n">
-        <v>774417.4144983445</v>
+        <v>777632.4730633225</v>
       </c>
       <c r="C42" t="n">
-        <v>1592593.419789017</v>
+        <v>1602817.383408064</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>661402.9347138255</v>
+        <v>661180.1572990752</v>
       </c>
       <c r="B43" t="n">
-        <v>443460.4946805637</v>
+        <v>445339.0323934215</v>
       </c>
       <c r="C43" t="n">
-        <v>927526.6176321999</v>
+        <v>924840.590790672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>661671.0832940906</v>
+        <v>665043.0275536403</v>
       </c>
       <c r="B44" t="n">
-        <v>464133.1246944424</v>
+        <v>462547.0965752712</v>
       </c>
       <c r="C44" t="n">
-        <v>930679.4984118637</v>
+        <v>929516.5778483752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1377676.653421851</v>
+        <v>1381445.565593534</v>
       </c>
       <c r="B45" t="n">
-        <v>932364.6948738616</v>
+        <v>943986.4401701103</v>
       </c>
       <c r="C45" t="n">
-        <v>1892375.999035983</v>
+        <v>1911865.780797239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>913450.311710728</v>
+        <v>917500.9548138493</v>
       </c>
       <c r="B46" t="n">
-        <v>639273.2066359916</v>
+        <v>646441.8308044226</v>
       </c>
       <c r="C46" t="n">
-        <v>1254587.225593883</v>
+        <v>1265247.096730388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1315424.482712001</v>
+        <v>1315891.055995775</v>
       </c>
       <c r="B47" t="n">
-        <v>881820.2593738271</v>
+        <v>894244.1706567031</v>
       </c>
       <c r="C47" t="n">
-        <v>1819948.450179778</v>
+        <v>1801595.498872063</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>776147.1943659994</v>
+        <v>766985.43717066</v>
       </c>
       <c r="B48" t="n">
-        <v>504737.8309225605</v>
+        <v>509746.6261386581</v>
       </c>
       <c r="C48" t="n">
-        <v>1093384.093982711</v>
+        <v>1095443.137453167</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>178237.5031418728</v>
+        <v>177274.4797560357</v>
       </c>
       <c r="B49" t="n">
-        <v>126722.0074036417</v>
+        <v>127447.4746467784</v>
       </c>
       <c r="C49" t="n">
-        <v>244821.7967378928</v>
+        <v>238921.9526097784</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>328090.8359688302</v>
+        <v>329113.9073687095</v>
       </c>
       <c r="B50" t="n">
-        <v>230654.3984349201</v>
+        <v>228147.3863543744</v>
       </c>
       <c r="C50" t="n">
-        <v>451573.1646303834</v>
+        <v>459605.6592446365</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>114336.8351119978</v>
+        <v>114114.5253083142</v>
       </c>
       <c r="B51" t="n">
-        <v>84860.13101195605</v>
+        <v>84424.58967766474</v>
       </c>
       <c r="C51" t="n">
-        <v>148299.1293776715</v>
+        <v>150569.380745057</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>788137.4860278494</v>
+        <v>785709.0024710825</v>
       </c>
       <c r="B52" t="n">
-        <v>536951.3837913306</v>
+        <v>535356.0541360932</v>
       </c>
       <c r="C52" t="n">
-        <v>1075625.827622738</v>
+        <v>1075299.267622101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>820563.3402241828</v>
+        <v>838470.1877190369</v>
       </c>
       <c r="B53" t="n">
-        <v>544490.6106693033</v>
+        <v>543856.9746836675</v>
       </c>
       <c r="C53" t="n">
-        <v>1200218.348475428</v>
+        <v>1215270.458404636</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>202519.6430443008</v>
+        <v>201249.1380775836</v>
       </c>
       <c r="B54" t="n">
-        <v>148242.5105448079</v>
+        <v>145860.5039219384</v>
       </c>
       <c r="C54" t="n">
-        <v>285229.7243435612</v>
+        <v>280806.3515648408</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>280663.344588084</v>
+        <v>282254.9273001692</v>
       </c>
       <c r="B55" t="n">
-        <v>195945.9377652968</v>
+        <v>196345.2786934428</v>
       </c>
       <c r="C55" t="n">
-        <v>410462.8300017079</v>
+        <v>406201.0346419477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1043257.225043901</v>
+        <v>1037267.124787318</v>
       </c>
       <c r="B56" t="n">
-        <v>716682.9951546326</v>
+        <v>706101.2751277878</v>
       </c>
       <c r="C56" t="n">
-        <v>1394960.054824797</v>
+        <v>1385097.30073972</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1001627.252127553</v>
+        <v>997926.599332686</v>
       </c>
       <c r="B57" t="n">
-        <v>710502.5400165397</v>
+        <v>690952.1429656249</v>
       </c>
       <c r="C57" t="n">
-        <v>1382698.277773104</v>
+        <v>1390921.433959004</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>328443.5860948152</v>
+        <v>327645.0022719084</v>
       </c>
       <c r="B58" t="n">
-        <v>227208.2295010426</v>
+        <v>225806.8073685259</v>
       </c>
       <c r="C58" t="n">
-        <v>465301.2197115186</v>
+        <v>468721.9215611541</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>905289.88366826</v>
+        <v>904333.3050928185</v>
       </c>
       <c r="B59" t="n">
-        <v>608099.3111038558</v>
+        <v>610271.7782148947</v>
       </c>
       <c r="C59" t="n">
-        <v>1258154.195489801</v>
+        <v>1259716.400569216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>237219.9178101345</v>
+        <v>237473.340884903</v>
       </c>
       <c r="B60" t="n">
-        <v>163911.2958916815</v>
+        <v>163556.4629190774</v>
       </c>
       <c r="C60" t="n">
-        <v>339506.1196870494</v>
+        <v>339881.4507100929</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1283020.051312923</v>
+        <v>1282941.499066801</v>
       </c>
       <c r="B61" t="n">
-        <v>866905.2859868257</v>
+        <v>861547.4266390188</v>
       </c>
       <c r="C61" t="n">
-        <v>1775207.075712825</v>
+        <v>1798421.359221304</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1030348.949918702</v>
+        <v>1035301.735475383</v>
       </c>
       <c r="B62" t="n">
-        <v>696208.5617670546</v>
+        <v>698455.6868328867</v>
       </c>
       <c r="C62" t="n">
-        <v>1444790.198344158</v>
+        <v>1448030.987666231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1529709.614407311</v>
+        <v>1543061.96644725</v>
       </c>
       <c r="B63" t="n">
-        <v>1021633.172101956</v>
+        <v>1043564.072535655</v>
       </c>
       <c r="C63" t="n">
-        <v>2088863.450003522</v>
+        <v>2123786.919513411</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>238293.0494990218</v>
+        <v>237952.1292898582</v>
       </c>
       <c r="B64" t="n">
-        <v>164611.4499432891</v>
+        <v>164256.6169706851</v>
       </c>
       <c r="C64" t="n">
-        <v>332800.1614381173</v>
+        <v>336417.7384862658</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>871258.8972117652</v>
+        <v>869927.0548018506</v>
       </c>
       <c r="B65" t="n">
-        <v>588806.3887742949</v>
+        <v>578091.7028811517</v>
       </c>
       <c r="C65" t="n">
-        <v>1173647.166858244</v>
+        <v>1178681.729926297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1039937.264980856</v>
+        <v>1032620.930620987</v>
       </c>
       <c r="B66" t="n">
-        <v>680734.5017200918</v>
+        <v>680274.6940959555</v>
       </c>
       <c r="C66" t="n">
-        <v>1470657.260474643</v>
+        <v>1450758.799756194</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>919925.7495035586</v>
+        <v>918348.0463848049</v>
       </c>
       <c r="B67" t="n">
-        <v>622999.4168022878</v>
+        <v>617131.3385770199</v>
       </c>
       <c r="C67" t="n">
-        <v>1270189.163957977</v>
+        <v>1273612.297637243</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>249896.9577912507</v>
+        <v>248762.2230325001</v>
       </c>
       <c r="B68" t="n">
-        <v>167748.1657220766</v>
+        <v>168852.3233419045</v>
       </c>
       <c r="C68" t="n">
-        <v>362333.1945068611</v>
+        <v>362154.5311515725</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1316046.277355427</v>
+        <v>1313927.536759081</v>
       </c>
       <c r="B69" t="n">
-        <v>906185.8016351492</v>
+        <v>918625.5164070942</v>
       </c>
       <c r="C69" t="n">
-        <v>1823911.913790234</v>
+        <v>1825688.992308316</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>206677.4718198519</v>
+        <v>207529.9648214925</v>
       </c>
       <c r="B70" t="n">
-        <v>153860.1695293956</v>
+        <v>150792.7989529555</v>
       </c>
       <c r="C70" t="n">
-        <v>285457.2099459408</v>
+        <v>285497.9836032013</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>341255.4160015559</v>
+        <v>341447.994752539</v>
       </c>
       <c r="B71" t="n">
-        <v>223291.365295548</v>
+        <v>221079.1844486067</v>
       </c>
       <c r="C71" t="n">
-        <v>496348.8539524126</v>
+        <v>493284.8373962808</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>500489.2627226768</v>
+        <v>496711.2341149423</v>
       </c>
       <c r="B72" t="n">
-        <v>345552.7607741079</v>
+        <v>339488.3292196367</v>
       </c>
       <c r="C72" t="n">
-        <v>692938.2437125708</v>
+        <v>684236.0222262378</v>
       </c>
     </row>
   </sheetData>
